--- a/pearson_tables/tp_netherlands_cumul-1-4.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-1-4.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6781962804490239</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6378073607762808</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5620458522391112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6963565522585445</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6639183984732095</v>
+        <v>-0.6872315258788352</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7842956437451506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.701924472357</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6076100364337943</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.680663708358266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7028198208508517</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6278522325162224</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6075492401328136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6338997794827517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6688599091400673</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6276510189367593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6663128076025617</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6782762778094148</v>
+        <v>-0.6781206431808408</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5408088286369486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7333871960309576</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.7505968472707485</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7359138617733231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7712944511602501</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7091857619169725</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7131571563186341</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
